--- a/male_female.xlsx
+++ b/male_female.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niuta\Documents\Develop\excel_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Niuta\Documents\Develop\python\Lab7\miniptoject2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67099466-5D3D-484E-B2D3-17288ACA10A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9835745-F564-4215-A64C-6DA4DAA86134}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11520" yWindow="0" windowWidth="11520" windowHeight="12360" xr2:uid="{D38FC3DB-E2F9-4172-A265-FCEAA4A4CAE2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D38FC3DB-E2F9-4172-A265-FCEAA4A4CAE2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -403,7 +403,7 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
